--- a/data/trans_camb/P12_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12_3_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 4,73</t>
+          <t>0,06; 4,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 1,05</t>
+          <t>-2,39; 1,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 7,45</t>
+          <t>-0,61; 7,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 1,08</t>
+          <t>-4,41; 1,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 2,53</t>
+          <t>-3,23; 2,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 7,13</t>
+          <t>-1,99; 6,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 1,77</t>
+          <t>-1,52; 2,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 1,23</t>
+          <t>-2,09; 1,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 5,63</t>
+          <t>-0,73; 5,71</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 308,12</t>
+          <t>-2,55; 326,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-78,54; 107,87</t>
+          <t>-77,82; 101,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-33,08; 468,91</t>
+          <t>-31,38; 506,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-70,84; 29,98</t>
+          <t>-67,98; 32,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,24; 65,12</t>
+          <t>-49,3; 68,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,82; 181,09</t>
+          <t>-34,45; 156,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,45; 60,52</t>
+          <t>-33,09; 72,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,16; 44,27</t>
+          <t>-46,62; 47,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-13,65; 193,57</t>
+          <t>-19,39; 180,76</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 3,93</t>
+          <t>-0,37; 3,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 4,2</t>
+          <t>-0,23; 4,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 9,41</t>
+          <t>2,03; 9,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 0,8</t>
+          <t>-5,15; 0,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 1,13</t>
+          <t>-5,28; 0,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 5,79</t>
+          <t>-1,62; 6,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,79</t>
+          <t>-2,05; 1,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 2,07</t>
+          <t>-1,77; 2,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 6,72</t>
+          <t>1,45; 6,86</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,86; 155,95</t>
+          <t>-10,64; 163,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 175,66</t>
+          <t>-9,39; 187,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,1; 356,32</t>
+          <t>45,78; 379,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-53,84; 13,93</t>
+          <t>-53,14; 12,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,8; 19,32</t>
+          <t>-52,83; 12,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,32; 87,43</t>
+          <t>-19,83; 85,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-28,35; 41,65</t>
+          <t>-32,26; 36,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,95; 44,79</t>
+          <t>-26,64; 44,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,59; 140,15</t>
+          <t>23,85; 144,09</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 4,17</t>
+          <t>-1,0; 4,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 2,13</t>
+          <t>-2,23; 2,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,53; 6,51</t>
+          <t>0,55; 6,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 7,94</t>
+          <t>1,78; 7,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 1,93</t>
+          <t>-3,29; 1,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 5,82</t>
+          <t>0,03; 5,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,25; 5,15</t>
+          <t>1,16; 5,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 1,45</t>
+          <t>-2,2; 1,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,07; 5,24</t>
+          <t>0,99; 5,16</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,73; 121,19</t>
+          <t>-17,38; 127,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-43,68; 62,78</t>
+          <t>-39,02; 74,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,39; 183,89</t>
+          <t>7,85; 198,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,22; 153,36</t>
+          <t>20,75; 149,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,78; 38,83</t>
+          <t>-41,34; 34,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,63; 112,67</t>
+          <t>-1,82; 101,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,25; 106,05</t>
+          <t>17,64; 109,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-32,51; 32,12</t>
+          <t>-34,22; 27,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>15,53; 110,2</t>
+          <t>14,12; 110,1</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,18; 7,28</t>
+          <t>1,64; 7,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,06; 9,47</t>
+          <t>2,99; 9,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,92; 9,07</t>
+          <t>2,13; 9,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,91; 11,85</t>
+          <t>3,88; 11,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 6,13</t>
+          <t>-0,81; 6,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 6,27</t>
+          <t>-0,12; 6,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,74; 8,92</t>
+          <t>3,72; 8,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,99; 6,69</t>
+          <t>1,79; 6,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,98; 6,79</t>
+          <t>2,08; 6,65</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>19,97; 243,02</t>
+          <t>17,76; 242,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>49,86; 311,32</t>
+          <t>43,67; 297,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>32,75; 280,3</t>
+          <t>33,42; 275,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>37,21; 175,55</t>
+          <t>37,09; 168,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 88,75</t>
+          <t>-9,12; 93,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,83; 90,2</t>
+          <t>-0,8; 92,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>45,99; 164,07</t>
+          <t>46,14; 162,29</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>24,7; 122,31</t>
+          <t>22,19; 119,74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>24,35; 121,87</t>
+          <t>26,32; 121,61</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,09; 8,08</t>
+          <t>0,18; 8,3</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 7,08</t>
+          <t>-0,41; 7,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,47; 8,8</t>
+          <t>1,4; 8,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,73; 11,82</t>
+          <t>2,33; 11,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,37; 13,64</t>
+          <t>4,36; 13,72</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,52; 11,95</t>
+          <t>4,5; 12,48</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,59; 8,81</t>
+          <t>2,77; 9,11</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,01; 8,89</t>
+          <t>2,91; 9,32</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,02; 9,13</t>
+          <t>4,24; 9,56</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 147,91</t>
+          <t>-0,13; 147,51</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 124,83</t>
+          <t>-6,8; 124,11</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>14,33; 165,87</t>
+          <t>12,66; 160,56</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>21,75; 161,24</t>
+          <t>20,0; 159,29</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>35,91; 189,7</t>
+          <t>34,81; 187,91</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>34,68; 163,61</t>
+          <t>34,79; 176,38</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>26,41; 129,81</t>
+          <t>28,48; 134,18</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>29,37; 128,38</t>
+          <t>27,4; 135,82</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>39,49; 133,47</t>
+          <t>40,22; 143,09</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 7,66</t>
+          <t>-0,71; 7,64</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 4,11</t>
+          <t>-2,92; 4,19</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,24; 10,32</t>
+          <t>3,36; 10,06</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5,82; 14,01</t>
+          <t>5,74; 14,03</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,38; 12,46</t>
+          <t>4,45; 12,29</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,91; 12,28</t>
+          <t>1,28; 12,38</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,33; 10,1</t>
+          <t>4,08; 10,06</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,31; 7,91</t>
+          <t>2,23; 7,86</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,69; 10,28</t>
+          <t>3,76; 10,59</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 88,77</t>
+          <t>-6,43; 91,54</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-24,03; 48,7</t>
+          <t>-24,34; 52,84</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>27,39; 130,02</t>
+          <t>27,34; 128,61</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>38,32; 132,97</t>
+          <t>41,08; 137,96</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>30,77; 116,99</t>
+          <t>31,29; 115,24</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>11,5; 114,79</t>
+          <t>11,9; 113,48</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>34,1; 101,71</t>
+          <t>31,47; 100,18</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>18,01; 78,21</t>
+          <t>17,97; 78,89</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>31,64; 102,69</t>
+          <t>32,25; 105,24</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,34</t>
+          <t>1,72; 4,08</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,5</t>
+          <t>0,94; 3,39</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4,32; 7,24</t>
+          <t>4,29; 7,07</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,6</t>
+          <t>3,3; 6,54</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,79</t>
+          <t>1,91; 4,86</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,21</t>
+          <t>3,96; 7,2</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,96; 4,92</t>
+          <t>2,94; 4,96</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,85; 3,77</t>
+          <t>1,88; 3,81</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>4,63; 6,73</t>
+          <t>4,57; 6,8</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>30,93; 94,82</t>
+          <t>29,86; 90,78</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>21,24; 80,27</t>
+          <t>15,67; 76,26</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>77,48; 161,57</t>
+          <t>75,65; 155,95</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>35,59; 83,3</t>
+          <t>35,77; 84,89</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>18,96; 60,66</t>
+          <t>21,0; 63,48</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>43,42; 92,6</t>
+          <t>43,56; 90,77</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>40,59; 75,44</t>
+          <t>40,52; 77,82</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>24,64; 58,31</t>
+          <t>24,99; 60,13</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>64,9; 105,33</t>
+          <t>62,67; 106,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12_3_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 4,53</t>
+          <t>0,04; 4,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 1,23</t>
+          <t>-2,64; 1,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 7,27</t>
+          <t>-0,51; 7,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 1,08</t>
+          <t>-4,5; 0,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 2,62</t>
+          <t>-3,05; 2,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 6,87</t>
+          <t>-2,08; 6,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 2,07</t>
+          <t>-1,7; 1,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 1,34</t>
+          <t>-2,02; 1,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 5,71</t>
+          <t>-0,72; 5,66</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 326,09</t>
+          <t>-4,99; 327,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-77,82; 101,53</t>
+          <t>-76,09; 104,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-31,38; 506,6</t>
+          <t>-36,85; 448,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-67,98; 32,29</t>
+          <t>-68,22; 21,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,3; 68,95</t>
+          <t>-47,73; 74,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,45; 156,26</t>
+          <t>-36,3; 163,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,09; 72,25</t>
+          <t>-37,02; 68,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,62; 47,39</t>
+          <t>-46,7; 44,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-19,39; 180,76</t>
+          <t>-21,29; 172,97</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 3,99</t>
+          <t>-0,51; 3,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 4,36</t>
+          <t>-0,01; 4,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 9,69</t>
+          <t>1,94; 9,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 0,72</t>
+          <t>-5,07; 0,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 0,84</t>
+          <t>-5,21; 0,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 6,39</t>
+          <t>-1,64; 6,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 1,69</t>
+          <t>-1,88; 1,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 2,05</t>
+          <t>-1,79; 1,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 6,86</t>
+          <t>1,41; 6,78</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 163,89</t>
+          <t>-14,82; 164,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 187,05</t>
+          <t>-4,3; 186,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,78; 379,83</t>
+          <t>41,2; 387,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-53,14; 12,67</t>
+          <t>-54,07; 10,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,83; 12,74</t>
+          <t>-54,66; 11,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,83; 85,35</t>
+          <t>-18,05; 92,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,26; 36,42</t>
+          <t>-29,59; 41,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,64; 44,64</t>
+          <t>-28,13; 41,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,85; 144,09</t>
+          <t>21,94; 138,48</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 4,22</t>
+          <t>-0,88; 4,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 2,59</t>
+          <t>-2,67; 2,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 6,75</t>
+          <t>0,77; 6,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,78; 7,93</t>
+          <t>1,51; 7,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 1,7</t>
+          <t>-3,25; 1,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,03; 5,27</t>
+          <t>0,07; 5,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,22</t>
+          <t>1,22; 5,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 1,28</t>
+          <t>-2,19; 1,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 5,16</t>
+          <t>1,21; 5,29</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-17,38; 127,13</t>
+          <t>-15,78; 125,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,02; 74,79</t>
+          <t>-44,5; 68,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,85; 198,35</t>
+          <t>8,84; 192,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,75; 149,23</t>
+          <t>19,73; 149,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,34; 34,06</t>
+          <t>-41,43; 36,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 101,35</t>
+          <t>-0,1; 105,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,64; 109,68</t>
+          <t>16,75; 109,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-34,22; 27,34</t>
+          <t>-33,2; 28,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,12; 110,1</t>
+          <t>16,87; 113,96</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,64; 7,71</t>
+          <t>1,31; 7,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,99; 9,32</t>
+          <t>2,87; 9,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,13; 9,06</t>
+          <t>2,19; 9,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,88; 11,65</t>
+          <t>3,92; 11,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 6,22</t>
+          <t>-1,1; 5,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 6,22</t>
+          <t>0,07; 6,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,72; 8,97</t>
+          <t>3,6; 8,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,79; 6,67</t>
+          <t>1,87; 6,68</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,08; 6,65</t>
+          <t>2,08; 6,66</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>17,76; 242,8</t>
+          <t>16,55; 220,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>43,67; 297,02</t>
+          <t>43,0; 292,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>33,42; 275,88</t>
+          <t>31,2; 276,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>37,09; 168,61</t>
+          <t>37,03; 166,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 93,09</t>
+          <t>-10,31; 84,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 92,89</t>
+          <t>-0,89; 93,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>46,14; 162,29</t>
+          <t>45,27; 156,81</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>22,19; 119,74</t>
+          <t>23,4; 121,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>26,32; 121,61</t>
+          <t>25,52; 119,2</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,18; 8,3</t>
+          <t>0,38; 8,12</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 7,08</t>
+          <t>-0,27; 7,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,4; 8,5</t>
+          <t>1,21; 8,78</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,33; 11,46</t>
+          <t>2,44; 11,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,36; 13,72</t>
+          <t>4,47; 13,7</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,5; 12,48</t>
+          <t>4,54; 12,35</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,77; 9,11</t>
+          <t>2,72; 8,8</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,91; 9,32</t>
+          <t>3,23; 9,26</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,24; 9,56</t>
+          <t>4,28; 9,57</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 147,51</t>
+          <t>2,63; 147,68</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 124,11</t>
+          <t>-4,55; 133,9</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>12,66; 160,56</t>
+          <t>13,44; 171,89</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>20,0; 159,29</t>
+          <t>22,16; 159,44</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>34,81; 187,91</t>
+          <t>38,74; 184,2</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>34,79; 176,38</t>
+          <t>35,33; 177,75</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>28,48; 134,18</t>
+          <t>27,72; 126,57</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>27,4; 135,82</t>
+          <t>31,29; 140,61</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>40,22; 143,09</t>
+          <t>42,35; 148,07</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 7,64</t>
+          <t>-0,43; 7,46</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 4,19</t>
+          <t>-3,08; 3,95</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,36; 10,06</t>
+          <t>3,02; 10,1</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5,74; 14,03</t>
+          <t>5,67; 13,63</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,45; 12,29</t>
+          <t>4,13; 12,12</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,28; 12,38</t>
+          <t>1,59; 12,24</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,08; 10,06</t>
+          <t>4,45; 10,15</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,23; 7,86</t>
+          <t>2,61; 7,93</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,76; 10,59</t>
+          <t>3,72; 10,49</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 91,54</t>
+          <t>-3,73; 94,06</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-24,34; 52,84</t>
+          <t>-25,54; 47,83</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>27,34; 128,61</t>
+          <t>23,25; 128,89</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>41,08; 137,96</t>
+          <t>39,84; 132,97</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>31,29; 115,24</t>
+          <t>30,48; 117,28</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>11,9; 113,48</t>
+          <t>15,29; 114,99</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>31,47; 100,18</t>
+          <t>34,3; 103,67</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>17,97; 78,89</t>
+          <t>19,95; 81,24</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>32,25; 105,24</t>
+          <t>32,48; 103,89</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,08</t>
+          <t>1,76; 4,17</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,39</t>
+          <t>1,09; 3,41</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4,29; 7,07</t>
+          <t>4,21; 6,93</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,3; 6,54</t>
+          <t>3,26; 6,47</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,86</t>
+          <t>1,72; 4,7</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>3,96; 7,2</t>
+          <t>3,97; 7,08</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,94; 4,96</t>
+          <t>2,99; 4,97</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,88; 3,81</t>
+          <t>1,87; 3,75</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>4,57; 6,8</t>
+          <t>4,63; 6,78</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>29,86; 90,78</t>
+          <t>31,96; 92,58</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>15,67; 76,26</t>
+          <t>19,85; 75,98</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>75,65; 155,95</t>
+          <t>74,96; 153,0</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>35,77; 84,89</t>
+          <t>35,33; 80,89</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>21,0; 63,48</t>
+          <t>19,29; 60,44</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>43,56; 90,77</t>
+          <t>44,17; 90,87</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>40,52; 77,82</t>
+          <t>41,25; 78,08</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>24,99; 60,13</t>
+          <t>26,05; 59,28</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>62,67; 106,93</t>
+          <t>64,98; 106,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12_3_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces</t>
+          <t>Población que se sintió desanimada y triste siempre, casi siempre o muchas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 4,5</t>
+          <t>0,06; 4,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 1,19</t>
+          <t>-2,75; 1,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 7,41</t>
+          <t>-0,73; 7,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 0,79</t>
+          <t>-4,59; 1,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 2,75</t>
+          <t>-3,41; 2,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 6,63</t>
+          <t>-2,18; 7,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 1,93</t>
+          <t>-1,72; 1,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 1,27</t>
+          <t>-2,2; 1,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 5,66</t>
+          <t>-0,47; 5,63</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 327,36</t>
+          <t>-10,01; 308,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-76,09; 104,65</t>
+          <t>-78,54; 107,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-36,85; 448,62</t>
+          <t>-33,08; 468,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-68,22; 21,29</t>
+          <t>-70,84; 29,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,73; 74,17</t>
+          <t>-53,24; 65,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,3; 163,37</t>
+          <t>-37,82; 181,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,02; 68,13</t>
+          <t>-38,45; 60,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,7; 44,09</t>
+          <t>-48,16; 44,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-21,29; 172,97</t>
+          <t>-13,65; 193,57</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 3,88</t>
+          <t>-0,38; 3,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 4,44</t>
+          <t>-0,3; 4,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 9,58</t>
+          <t>2,15; 9,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 0,82</t>
+          <t>-5,4; 0,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 0,67</t>
+          <t>-5,33; 1,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 6,26</t>
+          <t>-1,48; 5,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 1,76</t>
+          <t>-1,78; 1,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 1,93</t>
+          <t>-1,7; 2,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 6,78</t>
+          <t>1,61; 6,72</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,82; 164,2</t>
+          <t>-11,86; 155,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 186,73</t>
+          <t>-8,88; 175,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>41,2; 387,21</t>
+          <t>45,1; 356,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,07; 10,58</t>
+          <t>-53,84; 13,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,66; 11,12</t>
+          <t>-53,8; 19,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,05; 92,0</t>
+          <t>-16,32; 87,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,59; 41,63</t>
+          <t>-28,35; 41,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,13; 41,07</t>
+          <t>-26,95; 44,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,94; 138,48</t>
+          <t>24,59; 140,15</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 4,28</t>
+          <t>-0,83; 4,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 2,33</t>
+          <t>-2,45; 2,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,77; 6,91</t>
+          <t>0,53; 6,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,51; 7,67</t>
+          <t>1,36; 7,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 1,86</t>
+          <t>-3,4; 1,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 5,46</t>
+          <t>0,07; 5,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,22; 5,36</t>
+          <t>1,25; 5,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 1,33</t>
+          <t>-2,15; 1,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,21; 5,29</t>
+          <t>1,07; 5,24</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 125,61</t>
+          <t>-15,73; 121,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-44,5; 68,12</t>
+          <t>-43,68; 62,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,84; 192,38</t>
+          <t>6,39; 183,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,73; 149,2</t>
+          <t>16,22; 153,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,43; 36,09</t>
+          <t>-42,78; 38,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 105,46</t>
+          <t>0,63; 112,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,75; 109,17</t>
+          <t>17,25; 106,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,2; 28,57</t>
+          <t>-32,51; 32,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,87; 113,96</t>
+          <t>15,53; 110,2</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,31; 7,63</t>
+          <t>1,18; 7,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,87; 9,44</t>
+          <t>3,06; 9,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,19; 9,06</t>
+          <t>1,92; 9,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,92; 11,96</t>
+          <t>3,91; 11,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 5,72</t>
+          <t>-1,11; 6,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,07; 6,27</t>
+          <t>0,26; 6,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,6; 8,63</t>
+          <t>3,74; 8,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,87; 6,68</t>
+          <t>1,99; 6,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,08; 6,66</t>
+          <t>1,98; 6,79</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,55; 220,03</t>
+          <t>19,97; 243,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>43,0; 292,77</t>
+          <t>49,86; 311,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>31,2; 276,3</t>
+          <t>32,75; 280,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>37,03; 166,12</t>
+          <t>37,21; 175,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 84,97</t>
+          <t>-11,04; 88,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 93,77</t>
+          <t>0,83; 90,2</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>45,27; 156,81</t>
+          <t>45,99; 164,07</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>23,4; 121,56</t>
+          <t>24,7; 122,31</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>25,52; 119,2</t>
+          <t>24,35; 121,87</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,38; 8,12</t>
+          <t>0,09; 8,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 7,08</t>
+          <t>-0,76; 7,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,21; 8,78</t>
+          <t>1,47; 8,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,44; 11,57</t>
+          <t>2,73; 11,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,47; 13,7</t>
+          <t>4,37; 13,64</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,54; 12,35</t>
+          <t>4,52; 11,95</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,72; 8,8</t>
+          <t>2,59; 8,81</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,23; 9,26</t>
+          <t>3,01; 8,89</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,28; 9,57</t>
+          <t>4,02; 9,13</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2,63; 147,68</t>
+          <t>-1,36; 147,91</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 133,9</t>
+          <t>-9,52; 124,83</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>13,44; 171,89</t>
+          <t>14,33; 165,87</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>22,16; 159,44</t>
+          <t>21,75; 161,24</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>38,74; 184,2</t>
+          <t>35,91; 189,7</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>35,33; 177,75</t>
+          <t>34,68; 163,61</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>27,72; 126,57</t>
+          <t>26,41; 129,81</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>31,29; 140,61</t>
+          <t>29,37; 128,38</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>42,35; 148,07</t>
+          <t>39,49; 133,47</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 7,46</t>
+          <t>-0,61; 7,66</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 3,95</t>
+          <t>-2,86; 4,11</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,02; 10,1</t>
+          <t>3,24; 10,32</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5,67; 13,63</t>
+          <t>5,82; 14,01</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,13; 12,12</t>
+          <t>4,38; 12,46</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,59; 12,24</t>
+          <t>0,91; 12,28</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,45; 10,15</t>
+          <t>4,33; 10,1</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,61; 7,93</t>
+          <t>2,31; 7,91</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,72; 10,49</t>
+          <t>3,69; 10,28</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 94,06</t>
+          <t>-5,25; 88,77</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-25,54; 47,83</t>
+          <t>-24,03; 48,7</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>23,25; 128,89</t>
+          <t>27,39; 130,02</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>39,84; 132,97</t>
+          <t>38,32; 132,97</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>30,48; 117,28</t>
+          <t>30,77; 116,99</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>15,29; 114,99</t>
+          <t>11,5; 114,79</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>34,3; 103,67</t>
+          <t>34,1; 101,71</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>19,95; 81,24</t>
+          <t>18,01; 78,21</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>32,48; 103,89</t>
+          <t>31,64; 102,69</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,17</t>
+          <t>1,77; 4,34</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,41</t>
+          <t>1,15; 3,5</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4,21; 6,93</t>
+          <t>4,32; 7,24</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,26; 6,47</t>
+          <t>3,32; 6,6</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,7</t>
+          <t>1,77; 4,79</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,08</t>
+          <t>4,03; 7,21</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,99; 4,97</t>
+          <t>2,96; 4,92</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,87; 3,75</t>
+          <t>1,85; 3,77</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>4,63; 6,78</t>
+          <t>4,63; 6,73</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>31,96; 92,58</t>
+          <t>30,93; 94,82</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>19,85; 75,98</t>
+          <t>21,24; 80,27</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>74,96; 153,0</t>
+          <t>77,48; 161,57</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>35,33; 80,89</t>
+          <t>35,59; 83,3</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>19,29; 60,44</t>
+          <t>18,96; 60,66</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>44,17; 90,87</t>
+          <t>43,42; 92,6</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>41,25; 78,08</t>
+          <t>40,59; 75,44</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>26,05; 59,28</t>
+          <t>24,64; 58,31</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>64,98; 106,38</t>
+          <t>64,9; 105,33</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12_3_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>1,81</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 7,45</t>
+          <t>-0,9; 7,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 7,13</t>
+          <t>-2,18; 7,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 5,63</t>
+          <t>-0,64; 5,25</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>98,04%</t>
+          <t>91,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>35,14%</t>
+          <t>33,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>54,9%</t>
+          <t>48,72%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-33,08; 468,91</t>
+          <t>-37,63; 468,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,82; 181,09</t>
+          <t>-39,04; 181,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-13,65; 193,57</t>
+          <t>-17,12; 181,77</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>3,1</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 9,41</t>
+          <t>1,89; 9,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 5,79</t>
+          <t>-3,62; 4,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 6,72</t>
+          <t>0,56; 6,08</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>168,52%</t>
+          <t>158,89%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>26,07%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>73,36%</t>
+          <t>56,34%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,1; 356,32</t>
+          <t>38,09; 348,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,32; 87,43</t>
+          <t>-38,11; 64,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,59; 140,15</t>
+          <t>8,16; 124,45</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>2,84</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,53; 6,51</t>
+          <t>0,33; 6,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 5,82</t>
+          <t>-0,13; 5,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,07; 5,24</t>
+          <t>0,84; 4,94</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>74,54%</t>
+          <t>67,64%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>42,68%</t>
+          <t>39,73%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>55,12%</t>
+          <t>50,38%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,39; 183,89</t>
+          <t>1,84; 174,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,63; 112,67</t>
+          <t>-1,65; 108,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>15,53; 110,2</t>
+          <t>12,12; 103,23</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>3,01</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,92; 9,07</t>
+          <t>-1,88; 8,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 6,27</t>
+          <t>-0,44; 5,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,98; 6,79</t>
+          <t>-1,25; 5,96</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>120,24%</t>
+          <t>78,03%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>38,43%</t>
+          <t>32,78%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>67,01%</t>
+          <t>45,7%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>32,75; 280,3</t>
+          <t>-31,02; 220,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,83; 90,2</t>
+          <t>-4,25; 83,41</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>24,35; 121,87</t>
+          <t>-15,77; 102,98</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5,16</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>8,47</t>
+          <t>8,1</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>6,79</t>
+          <t>6,39</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,47; 8,8</t>
+          <t>1,14; 8,34</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,52; 11,95</t>
+          <t>4,18; 11,45</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,02; 9,13</t>
+          <t>3,66; 8,67</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>71,95%</t>
+          <t>66,77%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>91,45%</t>
+          <t>87,43%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>82,41%</t>
+          <t>77,59%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>14,33; 165,87</t>
+          <t>11,5; 158,02</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>34,68; 163,61</t>
+          <t>31,54; 156,34</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>39,49; 133,47</t>
+          <t>36,37; 127,15</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>6,84</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>9,92</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>8,49</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>8,22</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>7,19</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>5,13</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>7,71</t>
+          <t>0,31</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 7,66</t>
+          <t>-4,8; 6,95</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 4,11</t>
+          <t>-8,43; 1,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,24; 10,32</t>
+          <t>-1,93; 6,88</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5,82; 14,01</t>
+          <t>-0,38; 10,72</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,38; 12,46</t>
+          <t>-3,22; 7,33</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,91; 12,28</t>
+          <t>-12,52; 5,76</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,33; 10,1</t>
+          <t>-0,29; 7,73</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,31; 7,91</t>
+          <t>-3,88; 3,03</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,69; 10,28</t>
+          <t>-6,44; 4,65</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>35,89%</t>
+          <t>15,76%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>-31,88%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>68,39%</t>
+          <t>25,41%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>80,34%</t>
+          <t>37,63%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>68,77%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>66,64%</t>
+          <t>-11,34%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>63,41%</t>
+          <t>28,5%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>45,2%</t>
+          <t>-4,56%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>67,99%</t>
+          <t>2,49%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 88,77</t>
+          <t>-34,01; 80,53</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-24,03; 48,7</t>
+          <t>-61,0; 21,65</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>27,39; 130,02</t>
+          <t>-13,59; 88,33</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>38,32; 132,97</t>
+          <t>-3,82; 95,93</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>30,77; 116,99</t>
+          <t>-19,43; 69,07</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>11,5; 114,79</t>
+          <t>-69,51; 45,84</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>34,1; 101,71</t>
+          <t>-2,34; 69,06</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>18,01; 78,21</t>
+          <t>-27,61; 27,53</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>31,64; 102,69</t>
+          <t>-49,15; 40,66</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>6,06</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>11,15</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>14,4</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>14,71</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>15,15</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>11,14</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>11,39</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>13,53</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,34</t>
+          <t>-0,25; 11,77</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,5</t>
+          <t>1,04; 12,34</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4,32; 7,24</t>
+          <t>5,41; 15,97</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,6</t>
+          <t>8,21; 20,29</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,79</t>
+          <t>8,49; 20,7</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,21</t>
+          <t>10,73; 20,05</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,96; 4,92</t>
+          <t>6,74; 15,19</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,85; 3,77</t>
+          <t>6,64; 15,4</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>4,63; 6,73</t>
+          <t>10,04; 16,97</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>59,48%</t>
+          <t>68,58%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>45,61%</t>
+          <t>70,9%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>111,56%</t>
+          <t>126,27%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>56,8%</t>
+          <t>131,76%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>38,47%</t>
+          <t>134,58%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>66,51%</t>
+          <t>138,61%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>57,91%</t>
+          <t>110,04%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>41,28%</t>
+          <t>112,52%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>84,12%</t>
+          <t>133,63%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-4,88; 195,57</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>4,74; 196,45</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>41,03; 259,15</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>58,28; 237,49</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>60,79; 240,73</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>74,9; 263,41</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>53,81; 182,62</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>52,99; 187,49</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>77,6; 205,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>3,01</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>2,31</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>4,75</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>4,82</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>3,26</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>4,59</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>3,94</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>2,81</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>4,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>1,77; 4,34</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>1,15; 3,5</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>2,38; 6,35</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>3,32; 6,6</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>1,77; 4,79</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>2,15; 6,22</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>2,96; 4,92</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>1,85; 3,77</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>3,08; 5,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>59,48%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>45,61%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>93,76%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>56,8%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>38,47%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>54,17%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>57,91%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>41,28%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>69,01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>30,93; 94,82</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>21,24; 80,27</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>77,48; 161,57</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>46,39; 139,19</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>35,59; 83,3</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>18,96; 60,66</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>43,42; 92,6</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>26,27; 80,05</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>40,59; 75,44</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>24,64; 58,31</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>64,9; 105,33</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>44,0; 89,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P12_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12_3_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 4,73</t>
+          <t>0,24; 4,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 1,05</t>
+          <t>-2,45; 1,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 7,37</t>
+          <t>-0,66; 7,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 1,08</t>
+          <t>-4,41; 0,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 2,53</t>
+          <t>-3,23; 2,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 7,17</t>
+          <t>-2,58; 6,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 1,77</t>
+          <t>-1,75; 1,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 1,23</t>
+          <t>-2,21; 1,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 5,25</t>
+          <t>-1,03; 5,29</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 308,12</t>
+          <t>1,25; 370,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-78,54; 107,87</t>
+          <t>-78,68; 103,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,63; 468,91</t>
+          <t>-33,47; 470,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-70,84; 29,98</t>
+          <t>-67,06; 28,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,24; 65,12</t>
+          <t>-49,25; 80,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,04; 181,87</t>
+          <t>-44,59; 159,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,45; 60,52</t>
+          <t>-37,13; 64,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,16; 44,27</t>
+          <t>-48,4; 46,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-17,12; 181,77</t>
+          <t>-23,93; 169,44</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 3,93</t>
+          <t>-0,37; 4,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 4,2</t>
+          <t>-0,05; 4,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 9,21</t>
+          <t>1,67; 9,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 0,8</t>
+          <t>-5,43; 0,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 1,13</t>
+          <t>-5,37; 0,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 4,45</t>
+          <t>-4,48; 4,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,79</t>
+          <t>-1,9; 1,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 2,07</t>
+          <t>-1,75; 2,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 6,08</t>
+          <t>0,47; 5,91</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,86; 155,95</t>
+          <t>-12,99; 172,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 175,66</t>
+          <t>-4,05; 195,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>38,09; 348,27</t>
+          <t>32,81; 378,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-53,84; 13,93</t>
+          <t>-54,88; 9,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,8; 19,32</t>
+          <t>-52,95; 12,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,11; 64,63</t>
+          <t>-42,83; 63,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-28,35; 41,65</t>
+          <t>-30,62; 40,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,95; 44,79</t>
+          <t>-26,96; 43,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,16; 124,45</t>
+          <t>6,89; 123,89</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 4,17</t>
+          <t>-0,97; 4,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 2,13</t>
+          <t>-2,66; 2,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 6,24</t>
+          <t>0,56; 6,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 7,94</t>
+          <t>1,78; 8,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 1,93</t>
+          <t>-3,33; 2,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 5,56</t>
+          <t>0,07; 5,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,25; 5,15</t>
+          <t>1,25; 5,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 1,45</t>
+          <t>-2,2; 1,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,94</t>
+          <t>0,87; 4,73</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,73; 121,19</t>
+          <t>-18,18; 113,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-43,68; 62,78</t>
+          <t>-45,19; 66,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,84; 174,31</t>
+          <t>2,95; 183,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,22; 153,36</t>
+          <t>19,28; 154,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,78; 38,83</t>
+          <t>-41,74; 41,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 108,43</t>
+          <t>-0,6; 101,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,25; 106,05</t>
+          <t>18,69; 115,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-32,51; 32,12</t>
+          <t>-33,73; 28,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,12; 103,23</t>
+          <t>13,48; 100,48</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,18; 7,28</t>
+          <t>1,16; 7,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,06; 9,47</t>
+          <t>2,77; 9,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 8,1</t>
+          <t>-2,12; 8,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,91; 11,85</t>
+          <t>4,33; 12,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 6,13</t>
+          <t>-1,14; 5,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 5,8</t>
+          <t>-0,44; 5,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,74; 8,92</t>
+          <t>3,57; 8,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,99; 6,69</t>
+          <t>1,79; 6,47</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 5,96</t>
+          <t>-1,17; 5,62</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>19,97; 243,02</t>
+          <t>15,9; 235,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>49,86; 311,32</t>
+          <t>37,95; 292,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,02; 220,7</t>
+          <t>-30,9; 247,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>37,21; 175,55</t>
+          <t>40,12; 175,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 88,75</t>
+          <t>-11,69; 85,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 83,41</t>
+          <t>-4,0; 89,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>45,99; 164,07</t>
+          <t>46,19; 158,94</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>24,7; 122,31</t>
+          <t>21,85; 116,79</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-15,77; 102,98</t>
+          <t>-13,82; 96,43</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,09; 8,08</t>
+          <t>0,06; 8,12</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 7,08</t>
+          <t>-0,55; 7,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,14; 8,34</t>
+          <t>1,17; 8,48</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,73; 11,82</t>
+          <t>2,95; 12,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,37; 13,64</t>
+          <t>4,4; 13,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,18; 11,45</t>
+          <t>4,42; 11,56</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,59; 8,81</t>
+          <t>2,84; 8,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,01; 8,89</t>
+          <t>3,12; 9,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,66; 8,67</t>
+          <t>3,83; 8,96</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 147,91</t>
+          <t>-0,74; 148,83</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 124,83</t>
+          <t>-6,56; 140,36</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>11,5; 158,02</t>
+          <t>10,8; 174,72</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>21,75; 161,24</t>
+          <t>25,97; 167,78</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>35,91; 189,7</t>
+          <t>37,02; 192,37</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>31,54; 156,34</t>
+          <t>37,93; 161,33</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>26,41; 129,81</t>
+          <t>28,61; 127,28</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>29,37; 128,38</t>
+          <t>32,58; 131,62</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>36,37; 127,15</t>
+          <t>39,12; 131,32</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 6,95</t>
+          <t>-3,03; 7,82</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 1,0</t>
+          <t>-7,81; 1,54</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 6,88</t>
+          <t>-1,98; 7,47</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 10,72</t>
+          <t>-0,63; 10,8</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 7,33</t>
+          <t>-3,3; 7,03</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 5,76</t>
+          <t>-12,55; 6,04</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 7,73</t>
+          <t>-0,19; 7,24</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 3,03</t>
+          <t>-4,35; 3,03</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 4,65</t>
+          <t>-7,6; 4,8</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-34,01; 80,53</t>
+          <t>-24,22; 95,62</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-61,0; 21,65</t>
+          <t>-59,4; 19,5</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-13,59; 88,33</t>
+          <t>-14,72; 92,64</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 95,93</t>
+          <t>-3,96; 97,6</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 69,07</t>
+          <t>-21,04; 64,42</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-69,51; 45,84</t>
+          <t>-68,29; 47,86</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 69,06</t>
+          <t>-1,35; 65,05</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-27,61; 27,53</t>
+          <t>-29,91; 28,85</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-49,15; 40,66</t>
+          <t>-49,04; 41,77</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 11,77</t>
+          <t>-0,03; 12,23</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,04; 12,34</t>
+          <t>0,9; 12,09</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5,41; 15,97</t>
+          <t>6,13; 16,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>8,21; 20,29</t>
+          <t>8,49; 20,36</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>8,49; 20,7</t>
+          <t>8,88; 21,22</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>10,73; 20,05</t>
+          <t>10,1; 19,5</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,74; 15,19</t>
+          <t>6,85; 15,39</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>6,64; 15,4</t>
+          <t>6,97; 15,76</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>10,04; 16,97</t>
+          <t>9,78; 16,86</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 195,57</t>
+          <t>-0,7; 199,94</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>4,74; 196,45</t>
+          <t>5,91; 203,79</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>41,03; 259,15</t>
+          <t>47,17; 267,3</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>58,28; 237,49</t>
+          <t>58,85; 258,37</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>60,79; 240,73</t>
+          <t>59,05; 271,82</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>74,9; 263,41</t>
+          <t>68,07; 243,78</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>53,81; 182,62</t>
+          <t>53,74; 182,19</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>52,99; 187,49</t>
+          <t>56,34; 188,8</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>77,6; 205,74</t>
+          <t>75,95; 208,96</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,34</t>
+          <t>1,77; 4,26</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,5</t>
+          <t>1,09; 3,55</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>2,38; 6,35</t>
+          <t>2,42; 6,39</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,6</t>
+          <t>3,37; 6,41</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,79</t>
+          <t>1,74; 4,58</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,22</t>
+          <t>2,25; 6,31</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>2,96; 4,92</t>
+          <t>3,01; 4,97</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>1,85; 3,77</t>
+          <t>1,89; 3,79</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>3,08; 5,87</t>
+          <t>3,25; 5,91</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>30,93; 94,82</t>
+          <t>31,11; 95,5</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>21,24; 80,27</t>
+          <t>18,88; 76,73</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>46,39; 139,19</t>
+          <t>47,95; 140,92</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>35,59; 83,3</t>
+          <t>36,74; 81,02</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>18,96; 60,66</t>
+          <t>18,78; 59,04</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>26,27; 80,05</t>
+          <t>26,59; 81,16</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>40,59; 75,44</t>
+          <t>41,3; 80,8</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>24,64; 58,31</t>
+          <t>26,8; 59,55</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>44,0; 89,88</t>
+          <t>45,97; 91,81</t>
         </is>
       </c>
     </row>
